--- a/StudyMeeting/20190323_StudyMeeting/190323_TimeSchedule.xlsx
+++ b/StudyMeeting/20190323_StudyMeeting/190323_TimeSchedule.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7A1291-1C35-4BBF-B37B-A9D74C602BB6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ABAD09-F2CC-4752-8BF8-40B558642C78}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-132" yWindow="-132" windowWidth="19464" windowHeight="10464" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="timeScedule" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>順番</t>
     <rPh sb="0" eb="2">
@@ -77,22 +77,6 @@
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>D</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -199,6 +183,22 @@
     <rPh sb="8" eb="10">
       <t>ジカン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tomonobu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fiback</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kinonotohu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ueda</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:L10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -614,24 +614,24 @@
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="K2" s="9"/>
       <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>0.57291666666666663</v>
@@ -658,12 +658,12 @@
         <v>4</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2">
         <v>0.6875</v>
@@ -672,25 +672,27 @@
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0833333333333332E-2</v>
+        <v>3.4722222222222224E-2</v>
       </c>
       <c r="H4" s="2">
         <v>0.57291666666666663</v>
       </c>
       <c r="I4" s="2">
         <f>H4+G4</f>
-        <v>0.59375</v>
+        <v>0.60763888888888884</v>
       </c>
       <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="K4" s="2">
+        <v>0.61249999999999993</v>
+      </c>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2">
         <v>1.0416666666666666E-2</v>
@@ -699,18 +701,17 @@
         <v>2</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2">
-        <v>1.3888888888888888E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="H5" s="2">
-        <f>I4</f>
-        <v>0.59375</v>
+        <v>0.61249999999999993</v>
       </c>
       <c r="I5" s="2">
         <f>H5+G5</f>
-        <v>0.60763888888888884</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
@@ -718,7 +719,7 @@
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <f>C4-C3-C5</f>
@@ -731,15 +732,14 @@
         <v>5</v>
       </c>
       <c r="G6" s="2">
-        <v>6.9444444444444441E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" ref="H6:H10" si="0">I5</f>
-        <v>0.60763888888888884</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" ref="I6:I10" si="1">H6+G6</f>
-        <v>0.61458333333333326</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
@@ -747,7 +747,7 @@
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4">
         <f>C4-C3-C5</f>
@@ -757,18 +757,18 @@
         <v>4</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G7" s="2">
-        <v>2.7777777777777776E-2</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
-        <v>0.61458333333333326</v>
+        <v>0.64930555555555558</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>0.64236111111111105</v>
+        <f t="shared" ref="I6:I10" si="1">H7+G7</f>
+        <v>0.65972222222222221</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
@@ -776,7 +776,7 @@
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C8" s="4">
         <f>C7/C2</f>
@@ -786,18 +786,18 @@
         <v>5</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="G8" s="2">
-        <v>2.7777777777777776E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0.64236111111111105</v>
+        <v>0.65972222222222221</v>
       </c>
       <c r="I8" s="2">
         <f t="shared" si="1"/>
-        <v>0.67013888888888884</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -808,18 +808,16 @@
         <v>6</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1.7361111111111112E-2</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>0.67013888888888884</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="I9" s="2">
         <f t="shared" si="1"/>
-        <v>0.6875</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -832,16 +830,14 @@
       <c r="F10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2">
-        <v>1.0416666666666666E-2</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>0.6875</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="1"/>
-        <v>0.69791666666666663</v>
+        <v>0.69097222222222221</v>
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
